--- a/data_craw/quarter/balance_sheet_quarter/stb.xlsx
+++ b/data_craw/quarter/balance_sheet_quarter/stb.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -573,53 +573,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10755152000000</v>
+        <v>10408936000000</v>
       </c>
       <c r="C4" t="n">
-        <v>8269373000000</v>
+        <v>7678553000000</v>
       </c>
       <c r="D4" t="n">
-        <v>10993565000000</v>
+        <v>9120193000000</v>
       </c>
       <c r="E4" t="n">
-        <v>8415378000000</v>
+        <v>9907548000000</v>
       </c>
       <c r="F4" t="n">
-        <v>10408936000000</v>
+        <v>11464379000000</v>
       </c>
       <c r="G4" t="n">
-        <v>7678553000000</v>
+        <v>8222365000000</v>
       </c>
       <c r="H4" t="n">
-        <v>9120193000000</v>
+        <v>9874000000000</v>
       </c>
       <c r="I4" t="n">
-        <v>9907548000000</v>
+        <v>9744491000000</v>
       </c>
       <c r="J4" t="n">
-        <v>11464379000000</v>
+        <v>10350463000000</v>
       </c>
       <c r="K4" t="n">
-        <v>8222365000000</v>
+        <v>7849898000000</v>
       </c>
       <c r="L4" t="n">
-        <v>9874000000000</v>
+        <v>10542632000000</v>
       </c>
       <c r="M4" t="n">
-        <v>9744491000000</v>
+        <v>10561798000000</v>
       </c>
       <c r="N4" t="n">
-        <v>10350463000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7849898000000</v>
-      </c>
+        <v>10291802000000</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>10542632000000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>10561798000000</v>
-      </c>
+        <v>8487570000000</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -674,53 +670,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10449141000000</v>
+        <v>12059124000000</v>
       </c>
       <c r="C7" t="n">
-        <v>12109861000000</v>
+        <v>10052590000000</v>
       </c>
       <c r="D7" t="n">
-        <v>11426800000000</v>
+        <v>11896701000000</v>
       </c>
       <c r="E7" t="n">
-        <v>14113254000000</v>
+        <v>11367139000000</v>
       </c>
       <c r="F7" t="n">
-        <v>12059124000000</v>
+        <v>12854927000000</v>
       </c>
       <c r="G7" t="n">
-        <v>10052590000000</v>
+        <v>12169867000000</v>
       </c>
       <c r="H7" t="n">
-        <v>11896701000000</v>
+        <v>12383902000000</v>
       </c>
       <c r="I7" t="n">
-        <v>11367139000000</v>
+        <v>12626666000000</v>
       </c>
       <c r="J7" t="n">
-        <v>12854927000000</v>
+        <v>12568881000000</v>
       </c>
       <c r="K7" t="n">
-        <v>12169867000000</v>
+        <v>12286117000000</v>
       </c>
       <c r="L7" t="n">
-        <v>12383902000000</v>
+        <v>12581859000000</v>
       </c>
       <c r="M7" t="n">
-        <v>12626666000000</v>
+        <v>13551669000000</v>
       </c>
       <c r="N7" t="n">
-        <v>12568881000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>12286117000000</v>
-      </c>
+        <v>13211925000000</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>12581859000000</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>13551669000000</v>
-      </c>
+        <v>15798185000000</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -798,53 +790,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17792204000000</v>
+        <v>18315548000000</v>
       </c>
       <c r="C11" t="n">
-        <v>13150915000000</v>
+        <v>18397370000000</v>
       </c>
       <c r="D11" t="n">
-        <v>8354076000000</v>
+        <v>8631605000000</v>
       </c>
       <c r="E11" t="n">
-        <v>26355210000000</v>
+        <v>13541640000000</v>
       </c>
       <c r="F11" t="n">
-        <v>18315548000000</v>
+        <v>7772007000000</v>
       </c>
       <c r="G11" t="n">
-        <v>18397370000000</v>
+        <v>8353579000000</v>
       </c>
       <c r="H11" t="n">
-        <v>8631605000000</v>
+        <v>13222053000000</v>
       </c>
       <c r="I11" t="n">
-        <v>13541640000000</v>
+        <v>17876787000000</v>
       </c>
       <c r="J11" t="n">
-        <v>7772007000000</v>
+        <v>18024063000000</v>
       </c>
       <c r="K11" t="n">
-        <v>8353579000000</v>
+        <v>25293585000000</v>
       </c>
       <c r="L11" t="n">
-        <v>13222053000000</v>
+        <v>31349277000000</v>
       </c>
       <c r="M11" t="n">
-        <v>17876787000000</v>
+        <v>37868174000000</v>
       </c>
       <c r="N11" t="n">
-        <v>18024063000000</v>
-      </c>
-      <c r="O11" t="n">
-        <v>25293585000000</v>
-      </c>
+        <v>46344192000000</v>
+      </c>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>31349277000000</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>37868174000000</v>
-      </c>
+        <v>56985715000000</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -853,49 +841,45 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17351217000000</v>
+        <v>17702914000000</v>
       </c>
       <c r="C12" t="n">
-        <v>12716806000000</v>
+        <v>17643777000000</v>
       </c>
       <c r="D12" t="n">
-        <v>8034045000000</v>
+        <v>7773374000000</v>
       </c>
       <c r="E12" t="n">
-        <v>25882066000000</v>
+        <v>12944363000000</v>
       </c>
       <c r="F12" t="n">
-        <v>17702914000000</v>
+        <v>7008107000000</v>
       </c>
       <c r="G12" t="n">
-        <v>17643777000000</v>
+        <v>7678393000000</v>
       </c>
       <c r="H12" t="n">
-        <v>7773374000000</v>
+        <v>12600707000000</v>
       </c>
       <c r="I12" t="n">
-        <v>12944363000000</v>
+        <v>17169857000000</v>
       </c>
       <c r="J12" t="n">
-        <v>7008107000000</v>
+        <v>17462340000000</v>
       </c>
       <c r="K12" t="n">
-        <v>7678393000000</v>
+        <v>24968280000000</v>
       </c>
       <c r="L12" t="n">
-        <v>12600707000000</v>
-      </c>
-      <c r="M12" t="n">
-        <v>17169857000000</v>
-      </c>
+        <v>30989837000000</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>17462340000000</v>
-      </c>
-      <c r="O12" t="n">
-        <v>24968280000000</v>
-      </c>
+        <v>46045325000000</v>
+      </c>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>30989837000000</v>
+        <v>56766261000000</v>
       </c>
       <c r="Q12" t="inlineStr"/>
     </row>
@@ -906,53 +890,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>440987000000</v>
+        <v>612634000000</v>
       </c>
       <c r="C13" t="n">
-        <v>434109000000</v>
+        <v>753593000000</v>
       </c>
       <c r="D13" t="n">
-        <v>320031000000</v>
+        <v>858231000000</v>
       </c>
       <c r="E13" t="n">
-        <v>473144000000</v>
+        <v>704970000000</v>
       </c>
       <c r="F13" t="n">
-        <v>612634000000</v>
+        <v>871593000000</v>
       </c>
       <c r="G13" t="n">
-        <v>753593000000</v>
+        <v>675186000000</v>
       </c>
       <c r="H13" t="n">
-        <v>858231000000</v>
+        <v>621346000000</v>
       </c>
       <c r="I13" t="n">
-        <v>704970000000</v>
+        <v>706930000000</v>
       </c>
       <c r="J13" t="n">
-        <v>871593000000</v>
+        <v>561723000000</v>
       </c>
       <c r="K13" t="n">
-        <v>675186000000</v>
+        <v>325305000000</v>
       </c>
       <c r="L13" t="n">
-        <v>621346000000</v>
+        <v>359440000000</v>
       </c>
       <c r="M13" t="n">
-        <v>706930000000</v>
+        <v>324440000000</v>
       </c>
       <c r="N13" t="n">
-        <v>561723000000</v>
-      </c>
-      <c r="O13" t="n">
-        <v>325305000000</v>
-      </c>
+        <v>298867000000</v>
+      </c>
+      <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>359440000000</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>324440000000</v>
-      </c>
+        <v>219454000000</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1078,16 +1058,16 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>-107693000000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-107693000000</v>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>-107693000000</v>
-      </c>
-      <c r="J19" t="n">
-        <v>-107693000000</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1102,9 +1082,7 @@
           <t>IV. Hàng tồn kho</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>465300000000</v>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
@@ -1116,7 +1094,9 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+      <c r="N20" t="n">
+        <v>3000000000000</v>
+      </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
@@ -1127,9 +1107,7 @@
           <t>1. Hàng tồn kho</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>465300000000</v>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
@@ -1141,7 +1119,9 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+      <c r="N21" t="n">
+        <v>3000000000000</v>
+      </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
@@ -1176,47 +1156,41 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14149000000</v>
+        <v>11753000000</v>
       </c>
       <c r="C23" t="n">
-        <v>24465000000</v>
+        <v>19677000000</v>
       </c>
       <c r="D23" t="n">
-        <v>302176406000000</v>
+        <v>22350000000</v>
       </c>
       <c r="E23" t="n">
-        <v>34401000000</v>
+        <v>4442000000</v>
       </c>
       <c r="F23" t="n">
-        <v>11753000000</v>
-      </c>
-      <c r="G23" t="n">
-        <v>19677000000</v>
-      </c>
-      <c r="H23" t="n">
-        <v>22350000000</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4442000000</v>
-      </c>
+        <v>49379000000</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>49379000000</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
+        <v>67684000000</v>
+      </c>
+      <c r="K23" t="n">
+        <v>109858000000</v>
+      </c>
+      <c r="L23" t="n">
+        <v>76990000000</v>
+      </c>
+      <c r="M23" t="n">
+        <v>120875000000</v>
+      </c>
       <c r="N23" t="n">
-        <v>67684000000</v>
-      </c>
-      <c r="O23" t="n">
-        <v>109858000000</v>
-      </c>
-      <c r="P23" t="n">
-        <v>76990000000</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>120875000000</v>
-      </c>
+        <v>465403139000000</v>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1363,53 +1337,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>139893000000</v>
+        <v>106593000000</v>
       </c>
       <c r="C30" t="n">
-        <v>103854000000</v>
+        <v>124593000000</v>
       </c>
       <c r="D30" t="n">
-        <v>103854000000</v>
+        <v>124593000000</v>
       </c>
       <c r="E30" t="n">
-        <v>106593000000</v>
+        <v>227872000000</v>
       </c>
       <c r="F30" t="n">
-        <v>106593000000</v>
+        <v>89173000000</v>
       </c>
       <c r="G30" t="n">
-        <v>124593000000</v>
+        <v>88968000000</v>
       </c>
       <c r="H30" t="n">
-        <v>124593000000</v>
+        <v>88968000000</v>
       </c>
       <c r="I30" t="n">
-        <v>227872000000</v>
+        <v>88851000000</v>
       </c>
       <c r="J30" t="n">
-        <v>89173000000</v>
+        <v>88851000000</v>
       </c>
       <c r="K30" t="n">
-        <v>88968000000</v>
+        <v>88812000000</v>
       </c>
       <c r="L30" t="n">
-        <v>88968000000</v>
+        <v>88812000000</v>
       </c>
       <c r="M30" t="n">
-        <v>88851000000</v>
+        <v>82663000000</v>
       </c>
       <c r="N30" t="n">
-        <v>88851000000</v>
-      </c>
-      <c r="O30" t="n">
-        <v>88812000000</v>
-      </c>
+        <v>82663000000</v>
+      </c>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>88812000000</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>82663000000</v>
-      </c>
+        <v>82642000000</v>
+      </c>
+      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1487,31 +1457,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>320477000000</v>
+        <v>291031000000</v>
       </c>
       <c r="C34" t="n">
-        <v>298971000000</v>
+        <v>257764000000</v>
       </c>
       <c r="D34" t="n">
-        <v>298971000000</v>
+        <v>257764000000</v>
       </c>
       <c r="E34" t="n">
-        <v>298971000000</v>
+        <v>257764000000</v>
       </c>
       <c r="F34" t="n">
-        <v>291031000000</v>
+        <v>119064000000</v>
       </c>
       <c r="G34" t="n">
-        <v>257764000000</v>
+        <v>97014000000</v>
       </c>
       <c r="H34" t="n">
-        <v>257764000000</v>
+        <v>97014000000</v>
       </c>
       <c r="I34" t="n">
-        <v>257764000000</v>
+        <v>97014000000</v>
       </c>
       <c r="J34" t="n">
-        <v>119064000000</v>
+        <v>97014000000</v>
       </c>
       <c r="K34" t="n">
         <v>97014000000</v>
@@ -1525,15 +1495,11 @@
       <c r="N34" t="n">
         <v>97014000000</v>
       </c>
-      <c r="O34" t="n">
-        <v>97014000000</v>
-      </c>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
         <v>97014000000</v>
       </c>
-      <c r="Q34" t="n">
-        <v>97014000000</v>
-      </c>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1588,53 +1554,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-180584000000</v>
+        <v>-184438000000</v>
       </c>
       <c r="C37" t="n">
-        <v>-195117000000</v>
+        <v>-133171000000</v>
       </c>
       <c r="D37" t="n">
-        <v>-195117000000</v>
+        <v>-133171000000</v>
       </c>
       <c r="E37" t="n">
-        <v>-192378000000</v>
+        <v>-29892000000</v>
       </c>
       <c r="F37" t="n">
-        <v>-184438000000</v>
+        <v>-29891000000</v>
       </c>
       <c r="G37" t="n">
-        <v>-133171000000</v>
+        <v>-8046000000</v>
       </c>
       <c r="H37" t="n">
-        <v>-133171000000</v>
+        <v>-8046000000</v>
       </c>
       <c r="I37" t="n">
-        <v>-29892000000</v>
+        <v>-8163000000</v>
       </c>
       <c r="J37" t="n">
-        <v>-29891000000</v>
+        <v>-8163000000</v>
       </c>
       <c r="K37" t="n">
-        <v>-8046000000</v>
+        <v>-8202000000</v>
       </c>
       <c r="L37" t="n">
-        <v>-8046000000</v>
+        <v>-8202000000</v>
       </c>
       <c r="M37" t="n">
-        <v>-8163000000</v>
+        <v>-14351000000</v>
       </c>
       <c r="N37" t="n">
-        <v>-8163000000</v>
-      </c>
-      <c r="O37" t="n">
-        <v>-8202000000</v>
-      </c>
+        <v>-14351000000</v>
+      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>-8202000000</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>-14351000000</v>
-      </c>
+        <v>-14372000000</v>
+      </c>
+      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1643,53 +1605,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>8233474000000</v>
+        <v>8379155000000</v>
       </c>
       <c r="C38" t="n">
-        <v>8289968000000</v>
+        <v>8575424000000</v>
       </c>
       <c r="D38" t="n">
-        <v>8215636000000</v>
+        <v>8473407000000</v>
       </c>
       <c r="E38" t="n">
-        <v>8182222000000</v>
+        <v>8475762000000</v>
       </c>
       <c r="F38" t="n">
-        <v>8379155000000</v>
+        <v>8193844000000</v>
       </c>
       <c r="G38" t="n">
-        <v>8575424000000</v>
+        <v>8195276000000</v>
       </c>
       <c r="H38" t="n">
-        <v>8473407000000</v>
+        <v>8096330000000</v>
       </c>
       <c r="I38" t="n">
-        <v>8475762000000</v>
+        <v>7847586000000</v>
       </c>
       <c r="J38" t="n">
-        <v>8193844000000</v>
+        <v>7966533000000</v>
       </c>
       <c r="K38" t="n">
-        <v>8195276000000</v>
+        <v>7547677000000</v>
       </c>
       <c r="L38" t="n">
-        <v>8096330000000</v>
+        <v>7326557000000</v>
       </c>
       <c r="M38" t="n">
-        <v>7847586000000</v>
+        <v>7125339000000</v>
       </c>
       <c r="N38" t="n">
-        <v>7966533000000</v>
-      </c>
-      <c r="O38" t="n">
-        <v>7547677000000</v>
-      </c>
+        <v>7221610000000</v>
+      </c>
+      <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>7326557000000</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>7125339000000</v>
-      </c>
+        <v>7376050000000</v>
+      </c>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1698,53 +1656,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4632874000000</v>
+        <v>4628717000000</v>
       </c>
       <c r="C39" t="n">
-        <v>4697387000000</v>
+        <v>4746484000000</v>
       </c>
       <c r="D39" t="n">
-        <v>4623957000000</v>
+        <v>4695443000000</v>
       </c>
       <c r="E39" t="n">
-        <v>4557553000000</v>
+        <v>4666796000000</v>
       </c>
       <c r="F39" t="n">
-        <v>4628717000000</v>
+        <v>4569415000000</v>
       </c>
       <c r="G39" t="n">
-        <v>4746484000000</v>
+        <v>4518674000000</v>
       </c>
       <c r="H39" t="n">
-        <v>4695443000000</v>
+        <v>4454824000000</v>
       </c>
       <c r="I39" t="n">
-        <v>4666796000000</v>
+        <v>4501298000000</v>
       </c>
       <c r="J39" t="n">
-        <v>4569415000000</v>
+        <v>4574837000000</v>
       </c>
       <c r="K39" t="n">
-        <v>4518674000000</v>
+        <v>4489795000000</v>
       </c>
       <c r="L39" t="n">
-        <v>4454824000000</v>
+        <v>4265650000000</v>
       </c>
       <c r="M39" t="n">
-        <v>4501298000000</v>
+        <v>4137555000000</v>
       </c>
       <c r="N39" t="n">
-        <v>4574837000000</v>
-      </c>
-      <c r="O39" t="n">
-        <v>4489795000000</v>
-      </c>
+        <v>4200104000000</v>
+      </c>
+      <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
-        <v>4265650000000</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>4137555000000</v>
-      </c>
+        <v>4352829000000</v>
+      </c>
+      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1753,53 +1707,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7309360000000</v>
+        <v>7593557000000</v>
       </c>
       <c r="C40" t="n">
-        <v>7448991000000</v>
+        <v>7786883000000</v>
       </c>
       <c r="D40" t="n">
-        <v>7457425000000</v>
+        <v>7826365000000</v>
       </c>
       <c r="E40" t="n">
-        <v>7456260000000</v>
+        <v>7868949000000</v>
       </c>
       <c r="F40" t="n">
-        <v>7593557000000</v>
+        <v>7860318000000</v>
       </c>
       <c r="G40" t="n">
-        <v>7786883000000</v>
+        <v>7867653000000</v>
       </c>
       <c r="H40" t="n">
-        <v>7826365000000</v>
+        <v>7894640000000</v>
       </c>
       <c r="I40" t="n">
-        <v>7868949000000</v>
+        <v>7861275000000</v>
       </c>
       <c r="J40" t="n">
-        <v>7860318000000</v>
+        <v>8020220000000</v>
       </c>
       <c r="K40" t="n">
-        <v>7867653000000</v>
+        <v>7857573000000</v>
       </c>
       <c r="L40" t="n">
-        <v>7894640000000</v>
+        <v>7925942000000</v>
       </c>
       <c r="M40" t="n">
-        <v>7861275000000</v>
+        <v>7924279000000</v>
       </c>
       <c r="N40" t="n">
-        <v>8020220000000</v>
-      </c>
-      <c r="O40" t="n">
-        <v>7857573000000</v>
-      </c>
+        <v>8160900000000</v>
+      </c>
+      <c r="O40" t="inlineStr"/>
       <c r="P40" t="n">
-        <v>7925942000000</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>7924279000000</v>
-      </c>
+        <v>8584813000000</v>
+      </c>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1808,53 +1758,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-2676486000000</v>
+        <v>-2964840000000</v>
       </c>
       <c r="C41" t="n">
-        <v>-2751604000000</v>
+        <v>-3040399000000</v>
       </c>
       <c r="D41" t="n">
-        <v>-2833468000000</v>
+        <v>-3130922000000</v>
       </c>
       <c r="E41" t="n">
-        <v>-2898707000000</v>
+        <v>-3202151000000</v>
       </c>
       <c r="F41" t="n">
-        <v>-2964840000000</v>
+        <v>-3290903000000</v>
       </c>
       <c r="G41" t="n">
-        <v>-3040399000000</v>
+        <v>-3348979000000</v>
       </c>
       <c r="H41" t="n">
-        <v>-3130922000000</v>
+        <v>-3439816000000</v>
       </c>
       <c r="I41" t="n">
-        <v>-3202151000000</v>
+        <v>-3359977000000</v>
       </c>
       <c r="J41" t="n">
-        <v>-3290903000000</v>
+        <v>-3445383000000</v>
       </c>
       <c r="K41" t="n">
-        <v>-3348979000000</v>
+        <v>-3367778000000</v>
       </c>
       <c r="L41" t="n">
-        <v>-3439816000000</v>
+        <v>-3660292000000</v>
       </c>
       <c r="M41" t="n">
-        <v>-3359977000000</v>
+        <v>-3786724000000</v>
       </c>
       <c r="N41" t="n">
-        <v>-3445383000000</v>
-      </c>
-      <c r="O41" t="n">
-        <v>-3367778000000</v>
-      </c>
+        <v>-3960796000000</v>
+      </c>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="n">
-        <v>-3660292000000</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>-3786724000000</v>
-      </c>
+        <v>-4231984000000</v>
+      </c>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1932,53 +1878,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3600600000000</v>
+        <v>3749438000000</v>
       </c>
       <c r="C45" t="n">
-        <v>3592581000000</v>
+        <v>3828940000000</v>
       </c>
       <c r="D45" t="n">
-        <v>3591679000000</v>
+        <v>3777964000000</v>
       </c>
       <c r="E45" t="n">
-        <v>3624669000000</v>
+        <v>3808964000000</v>
       </c>
       <c r="F45" t="n">
-        <v>3749438000000</v>
+        <v>3624429000000</v>
       </c>
       <c r="G45" t="n">
-        <v>3828940000000</v>
+        <v>3676602000000</v>
       </c>
       <c r="H45" t="n">
-        <v>3777964000000</v>
+        <v>3641506000000</v>
       </c>
       <c r="I45" t="n">
-        <v>3808964000000</v>
+        <v>3346288000000</v>
       </c>
       <c r="J45" t="n">
-        <v>3624429000000</v>
+        <v>3391696000000</v>
       </c>
       <c r="K45" t="n">
-        <v>3676602000000</v>
+        <v>3057882000000</v>
       </c>
       <c r="L45" t="n">
-        <v>3641506000000</v>
+        <v>3060907000000</v>
       </c>
       <c r="M45" t="n">
-        <v>3346288000000</v>
+        <v>2987784000000</v>
       </c>
       <c r="N45" t="n">
-        <v>3391696000000</v>
-      </c>
-      <c r="O45" t="n">
-        <v>3057882000000</v>
-      </c>
+        <v>3021506000000</v>
+      </c>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="n">
-        <v>3060907000000</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2987784000000</v>
-      </c>
+        <v>3023221000000</v>
+      </c>
+      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1987,53 +1929,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4643628000000</v>
+        <v>4972044000000</v>
       </c>
       <c r="C46" t="n">
-        <v>4677710000000</v>
+        <v>5097754000000</v>
       </c>
       <c r="D46" t="n">
-        <v>4719588000000</v>
+        <v>5097224000000</v>
       </c>
       <c r="E46" t="n">
-        <v>4798320000000</v>
+        <v>5181307000000</v>
       </c>
       <c r="F46" t="n">
-        <v>4972044000000</v>
+        <v>5050523000000</v>
       </c>
       <c r="G46" t="n">
-        <v>5097754000000</v>
+        <v>5156973000000</v>
       </c>
       <c r="H46" t="n">
-        <v>5097224000000</v>
+        <v>5178285000000</v>
       </c>
       <c r="I46" t="n">
-        <v>5181307000000</v>
+        <v>4801065000000</v>
       </c>
       <c r="J46" t="n">
-        <v>5050523000000</v>
+        <v>4904506000000</v>
       </c>
       <c r="K46" t="n">
-        <v>5156973000000</v>
+        <v>4522417000000</v>
       </c>
       <c r="L46" t="n">
-        <v>5178285000000</v>
+        <v>4627377000000</v>
       </c>
       <c r="M46" t="n">
-        <v>4801065000000</v>
+        <v>4625095000000</v>
       </c>
       <c r="N46" t="n">
-        <v>4904506000000</v>
-      </c>
-      <c r="O46" t="n">
-        <v>4522417000000</v>
-      </c>
+        <v>4733091000000</v>
+      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="n">
-        <v>4627377000000</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>4625095000000</v>
-      </c>
+        <v>4870525000000</v>
+      </c>
+      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2042,53 +1980,49 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-1043028000000</v>
+        <v>-1222606000000</v>
       </c>
       <c r="C47" t="n">
-        <v>-1085129000000</v>
+        <v>-1268814000000</v>
       </c>
       <c r="D47" t="n">
-        <v>-1127909000000</v>
+        <v>-1319260000000</v>
       </c>
       <c r="E47" t="n">
-        <v>-1173651000000</v>
+        <v>-1372343000000</v>
       </c>
       <c r="F47" t="n">
-        <v>-1222606000000</v>
+        <v>-1426094000000</v>
       </c>
       <c r="G47" t="n">
-        <v>-1268814000000</v>
+        <v>-1480371000000</v>
       </c>
       <c r="H47" t="n">
-        <v>-1319260000000</v>
+        <v>-1536779000000</v>
       </c>
       <c r="I47" t="n">
-        <v>-1372343000000</v>
+        <v>-1454777000000</v>
       </c>
       <c r="J47" t="n">
-        <v>-1426094000000</v>
+        <v>-1512810000000</v>
       </c>
       <c r="K47" t="n">
-        <v>-1480371000000</v>
+        <v>-1464535000000</v>
       </c>
       <c r="L47" t="n">
-        <v>-1536779000000</v>
+        <v>-1566470000000</v>
       </c>
       <c r="M47" t="n">
-        <v>-1454777000000</v>
+        <v>-1637311000000</v>
       </c>
       <c r="N47" t="n">
-        <v>-1512810000000</v>
-      </c>
-      <c r="O47" t="n">
-        <v>-1464535000000</v>
-      </c>
+        <v>-1711585000000</v>
+      </c>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="n">
-        <v>-1566470000000</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>-1637311000000</v>
-      </c>
+        <v>-1847304000000</v>
+      </c>
+      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2235,53 +2169,49 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>42871818000000</v>
+        <v>38808617000000</v>
       </c>
       <c r="C54" t="n">
-        <v>1561309000000</v>
+        <v>37355604000000</v>
       </c>
       <c r="D54" t="n">
-        <v>39601970000000</v>
+        <v>35195284000000</v>
       </c>
       <c r="E54" t="n">
-        <v>39789459000000</v>
+        <v>32353631000000</v>
       </c>
       <c r="F54" t="n">
-        <v>38808617000000</v>
+        <v>30841079000000</v>
       </c>
       <c r="G54" t="n">
-        <v>37355604000000</v>
+        <v>33219052000000</v>
       </c>
       <c r="H54" t="n">
-        <v>35195284000000</v>
+        <v>29445418000000</v>
       </c>
       <c r="I54" t="n">
-        <v>32353631000000</v>
+        <v>24602759000000</v>
       </c>
       <c r="J54" t="n">
-        <v>30841079000000</v>
+        <v>26059892000000</v>
       </c>
       <c r="K54" t="n">
-        <v>33219052000000</v>
+        <v>36873640000000</v>
       </c>
       <c r="L54" t="n">
-        <v>29445418000000</v>
+        <v>25126092000000</v>
       </c>
       <c r="M54" t="n">
-        <v>24602759000000</v>
+        <v>25861225000000</v>
       </c>
       <c r="N54" t="n">
-        <v>26059892000000</v>
-      </c>
-      <c r="O54" t="n">
-        <v>36873640000000</v>
-      </c>
+        <v>33186334000000</v>
+      </c>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="n">
-        <v>25126092000000</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>25861225000000</v>
-      </c>
+        <v>36965705000000</v>
+      </c>
+      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2290,51 +2220,49 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>21369334000000</v>
-      </c>
-      <c r="C55" t="inlineStr"/>
+        <v>21633397000000</v>
+      </c>
+      <c r="C55" t="n">
+        <v>21277371000000</v>
+      </c>
       <c r="D55" t="n">
-        <v>20580342000000</v>
+        <v>20510445000000</v>
       </c>
       <c r="E55" t="n">
-        <v>21260641000000</v>
+        <v>19901312000000</v>
       </c>
       <c r="F55" t="n">
-        <v>21633397000000</v>
+        <v>19342216000000</v>
       </c>
       <c r="G55" t="n">
-        <v>21277371000000</v>
+        <v>24874964000000</v>
       </c>
       <c r="H55" t="n">
-        <v>20510445000000</v>
+        <v>22939905000000</v>
       </c>
       <c r="I55" t="n">
-        <v>19901312000000</v>
+        <v>22054668000000</v>
       </c>
       <c r="J55" t="n">
-        <v>19342216000000</v>
+        <v>22835249000000</v>
       </c>
       <c r="K55" t="n">
-        <v>24874964000000</v>
+        <v>32714510000000</v>
       </c>
       <c r="L55" t="n">
-        <v>22939905000000</v>
+        <v>20947994000000</v>
       </c>
       <c r="M55" t="n">
-        <v>22054668000000</v>
+        <v>21593113000000</v>
       </c>
       <c r="N55" t="n">
-        <v>22835249000000</v>
-      </c>
-      <c r="O55" t="n">
-        <v>32714510000000</v>
-      </c>
+        <v>28729840000000</v>
+      </c>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="n">
-        <v>20947994000000</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>21593113000000</v>
-      </c>
+        <v>32910837000000</v>
+      </c>
+      <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2343,51 +2271,49 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>20610663000000</v>
-      </c>
-      <c r="C56" t="inlineStr"/>
+        <v>18376574000000</v>
+      </c>
+      <c r="C56" t="n">
+        <v>17499865000000</v>
+      </c>
       <c r="D56" t="n">
-        <v>18825596000000</v>
+        <v>16182597000000</v>
       </c>
       <c r="E56" t="n">
-        <v>18611585000000</v>
+        <v>14051495000000</v>
       </c>
       <c r="F56" t="n">
-        <v>18376574000000</v>
+        <v>13225746000000</v>
       </c>
       <c r="G56" t="n">
-        <v>17499865000000</v>
+        <v>9951216000000</v>
       </c>
       <c r="H56" t="n">
-        <v>16182597000000</v>
+        <v>7945324000000</v>
       </c>
       <c r="I56" t="n">
-        <v>14051495000000</v>
+        <v>3908108000000</v>
       </c>
       <c r="J56" t="n">
-        <v>13225746000000</v>
+        <v>4240890000000</v>
       </c>
       <c r="K56" t="n">
-        <v>9951216000000</v>
+        <v>5078974000000</v>
       </c>
       <c r="L56" t="n">
-        <v>7945324000000</v>
+        <v>5196611000000</v>
       </c>
       <c r="M56" t="n">
-        <v>3908108000000</v>
+        <v>5413037000000</v>
       </c>
       <c r="N56" t="n">
-        <v>4240890000000</v>
-      </c>
-      <c r="O56" t="n">
-        <v>5078974000000</v>
-      </c>
+        <v>5627893000000</v>
+      </c>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="n">
-        <v>5196611000000</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>5413037000000</v>
-      </c>
+        <v>5503622000000</v>
+      </c>
+      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2396,49 +2322,49 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>130236000000</v>
-      </c>
-      <c r="C57" t="inlineStr"/>
+        <v>159845000000</v>
+      </c>
+      <c r="C57" t="n">
+        <v>450454000000</v>
+      </c>
       <c r="D57" t="n">
-        <v>161141000000</v>
-      </c>
-      <c r="E57" t="inlineStr"/>
+        <v>450423000000</v>
+      </c>
+      <c r="E57" t="n">
+        <v>450213000000</v>
+      </c>
       <c r="F57" t="n">
-        <v>159845000000</v>
+        <v>449262000000</v>
       </c>
       <c r="G57" t="n">
-        <v>450454000000</v>
+        <v>405006000000</v>
       </c>
       <c r="H57" t="n">
-        <v>450423000000</v>
+        <v>405002000000</v>
       </c>
       <c r="I57" t="n">
-        <v>450213000000</v>
+        <v>406447000000</v>
       </c>
       <c r="J57" t="n">
-        <v>449262000000</v>
+        <v>408578000000</v>
       </c>
       <c r="K57" t="n">
-        <v>405006000000</v>
+        <v>242847000000</v>
       </c>
       <c r="L57" t="n">
-        <v>405002000000</v>
+        <v>242809000000</v>
       </c>
       <c r="M57" t="n">
-        <v>406447000000</v>
+        <v>256660000000</v>
       </c>
       <c r="N57" t="n">
-        <v>408578000000</v>
-      </c>
-      <c r="O57" t="n">
-        <v>242847000000</v>
-      </c>
+        <v>257247000000</v>
+      </c>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="n">
-        <v>242809000000</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>256660000000</v>
-      </c>
+        <v>398337000000</v>
+      </c>
+      <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2447,51 +2373,49 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1625935000000</v>
-      </c>
-      <c r="C58" t="inlineStr"/>
+        <v>1274880000000</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1211021000000</v>
+      </c>
       <c r="D58" t="n">
-        <v>1434461000000</v>
+        <v>1135655000000</v>
       </c>
       <c r="E58" t="n">
-        <v>1564054000000</v>
+        <v>1033093000000</v>
       </c>
       <c r="F58" t="n">
-        <v>1274880000000</v>
+        <v>899255000000</v>
       </c>
       <c r="G58" t="n">
-        <v>1211021000000</v>
+        <v>1064288000000</v>
       </c>
       <c r="H58" t="n">
-        <v>1135655000000</v>
+        <v>1071995000000</v>
       </c>
       <c r="I58" t="n">
-        <v>1033093000000</v>
+        <v>1042644000000</v>
       </c>
       <c r="J58" t="n">
-        <v>899255000000</v>
+        <v>1169517000000</v>
       </c>
       <c r="K58" t="n">
-        <v>1064288000000</v>
+        <v>1228556000000</v>
       </c>
       <c r="L58" t="n">
-        <v>1071995000000</v>
+        <v>1298897000000</v>
       </c>
       <c r="M58" t="n">
-        <v>1042644000000</v>
+        <v>1244151000000</v>
       </c>
       <c r="N58" t="n">
-        <v>1169517000000</v>
-      </c>
-      <c r="O58" t="n">
-        <v>1228556000000</v>
-      </c>
+        <v>1303589000000</v>
+      </c>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="n">
-        <v>1298897000000</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>1244151000000</v>
-      </c>
+        <v>1267759000000</v>
+      </c>
+      <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2707,53 +2631,49 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>450200240000000</v>
+        <v>485212606000000</v>
       </c>
       <c r="C68" t="n">
-        <v>453581057000000</v>
+        <v>492636633000000</v>
       </c>
       <c r="D68" t="n">
-        <v>459076447000000</v>
+        <v>497427679000000</v>
       </c>
       <c r="E68" t="n">
-        <v>481897995000000</v>
+        <v>504533717000000</v>
       </c>
       <c r="F68" t="n">
-        <v>485212606000000</v>
+        <v>494294982000000</v>
       </c>
       <c r="G68" t="n">
-        <v>492636633000000</v>
+        <v>521196331000000</v>
       </c>
       <c r="H68" t="n">
-        <v>497427679000000</v>
+        <v>552539011000000</v>
       </c>
       <c r="I68" t="n">
-        <v>504533717000000</v>
+        <v>551422119000000</v>
       </c>
       <c r="J68" t="n">
-        <v>494294982000000</v>
+        <v>564192851000000</v>
       </c>
       <c r="K68" t="n">
-        <v>521196331000000</v>
+        <v>591994201000000</v>
       </c>
       <c r="L68" t="n">
-        <v>552539011000000</v>
+        <v>596693994000000</v>
       </c>
       <c r="M68" t="n">
-        <v>551422119000000</v>
+        <v>622177662000000</v>
       </c>
       <c r="N68" t="n">
-        <v>564192851000000</v>
-      </c>
-      <c r="O68" t="n">
-        <v>591994201000000</v>
-      </c>
+        <v>651288299000000</v>
+      </c>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="n">
-        <v>596693994000000</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>622177662000000</v>
-      </c>
+        <v>693534553000000</v>
+      </c>
+      <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2762,53 +2682,49 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>252149000000</v>
+        <v>163308000000</v>
       </c>
       <c r="C69" t="n">
-        <v>241539000000</v>
+        <v>143528000000</v>
       </c>
       <c r="D69" t="n">
-        <v>212371000000</v>
+        <v>124746000000</v>
       </c>
       <c r="E69" t="n">
-        <v>187373000000</v>
+        <v>106912000000</v>
       </c>
       <c r="F69" t="n">
-        <v>163308000000</v>
+        <v>89359000000</v>
       </c>
       <c r="G69" t="n">
-        <v>143528000000</v>
+        <v>522745000000</v>
       </c>
       <c r="H69" t="n">
-        <v>124746000000</v>
+        <v>58599000000</v>
       </c>
       <c r="I69" t="n">
-        <v>106912000000</v>
+        <v>62995000000</v>
       </c>
       <c r="J69" t="n">
-        <v>89359000000</v>
+        <v>51577000000</v>
       </c>
       <c r="K69" t="n">
-        <v>522745000000</v>
+        <v>9901209000000</v>
       </c>
       <c r="L69" t="n">
-        <v>58599000000</v>
+        <v>33962000000</v>
       </c>
       <c r="M69" t="n">
-        <v>62995000000</v>
+        <v>28707000000</v>
       </c>
       <c r="N69" t="n">
-        <v>51577000000</v>
-      </c>
-      <c r="O69" t="n">
-        <v>9901209000000</v>
-      </c>
+        <v>27687000000</v>
+      </c>
+      <c r="O69" t="inlineStr"/>
       <c r="P69" t="n">
-        <v>33962000000</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>28707000000</v>
-      </c>
+        <v>18685000000</v>
+      </c>
+      <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3024,53 +2940,49 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2991439000000</v>
+        <v>3248072000000</v>
       </c>
       <c r="C79" t="n">
-        <v>399665000000</v>
+        <v>7880006000000</v>
       </c>
       <c r="D79" t="n">
-        <v>3844034000000</v>
+        <v>8462783000000</v>
       </c>
       <c r="E79" t="n">
-        <v>3791656000000</v>
+        <v>8855610000000</v>
       </c>
       <c r="F79" t="n">
-        <v>3248072000000</v>
+        <v>6958706000000</v>
       </c>
       <c r="G79" t="n">
-        <v>7880006000000</v>
+        <v>15229099000000</v>
       </c>
       <c r="H79" t="n">
-        <v>8462783000000</v>
+        <v>17660693000000</v>
       </c>
       <c r="I79" t="n">
-        <v>8855610000000</v>
+        <v>14376406000000</v>
       </c>
       <c r="J79" t="n">
-        <v>6958706000000</v>
+        <v>17692685000000</v>
       </c>
       <c r="K79" t="n">
-        <v>15229099000000</v>
+        <v>28430448000000</v>
       </c>
       <c r="L79" t="n">
-        <v>17660693000000</v>
+        <v>24549053000000</v>
       </c>
       <c r="M79" t="n">
-        <v>14376406000000</v>
+        <v>18123332000000</v>
       </c>
       <c r="N79" t="n">
-        <v>17692685000000</v>
-      </c>
-      <c r="O79" t="n">
-        <v>28430448000000</v>
-      </c>
+        <v>29634107000000</v>
+      </c>
+      <c r="O79" t="inlineStr"/>
       <c r="P79" t="n">
-        <v>24549053000000</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>18123332000000</v>
-      </c>
+        <v>40646857000000</v>
+      </c>
+      <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3079,51 +2991,49 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>588300000000</v>
-      </c>
-      <c r="C80" t="inlineStr"/>
+        <v>532227000000</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3988377000000</v>
+      </c>
       <c r="D80" t="n">
-        <v>705383000000</v>
+        <v>3305980000000</v>
       </c>
       <c r="E80" t="n">
-        <v>1156005000000</v>
+        <v>2716151000000</v>
       </c>
       <c r="F80" t="n">
-        <v>532227000000</v>
+        <v>3043300000000</v>
       </c>
       <c r="G80" t="n">
-        <v>3988377000000</v>
+        <v>9191147000000</v>
       </c>
       <c r="H80" t="n">
-        <v>3305980000000</v>
+        <v>7414603000000</v>
       </c>
       <c r="I80" t="n">
-        <v>2716151000000</v>
+        <v>8317159000000</v>
       </c>
       <c r="J80" t="n">
-        <v>3043300000000</v>
+        <v>10601153000000</v>
       </c>
       <c r="K80" t="n">
-        <v>9191147000000</v>
+        <v>21729677000000</v>
       </c>
       <c r="L80" t="n">
-        <v>7414603000000</v>
+        <v>20029840000000</v>
       </c>
       <c r="M80" t="n">
-        <v>8317159000000</v>
+        <v>14629453000000</v>
       </c>
       <c r="N80" t="n">
-        <v>10601153000000</v>
-      </c>
-      <c r="O80" t="n">
-        <v>21729677000000</v>
-      </c>
+        <v>26756538000000</v>
+      </c>
+      <c r="O80" t="inlineStr"/>
       <c r="P80" t="n">
-        <v>20029840000000</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>14629453000000</v>
-      </c>
+        <v>36896180000000</v>
+      </c>
+      <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3132,51 +3042,47 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2403139000000</v>
+        <v>2715845000000</v>
       </c>
       <c r="C81" t="n">
-        <v>3125895000000</v>
+        <v>3891629000000</v>
       </c>
       <c r="D81" t="n">
-        <v>3138651000000</v>
+        <v>5156803000000</v>
       </c>
       <c r="E81" t="n">
-        <v>2635651000000</v>
+        <v>6139459000000</v>
       </c>
       <c r="F81" t="n">
-        <v>2715845000000</v>
+        <v>3915406000000</v>
       </c>
       <c r="G81" t="n">
-        <v>3891629000000</v>
-      </c>
-      <c r="H81" t="n">
-        <v>5156803000000</v>
-      </c>
+        <v>6037952000000</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="n">
-        <v>6139459000000</v>
+        <v>6059247000000</v>
       </c>
       <c r="J81" t="n">
-        <v>3915406000000</v>
+        <v>7091532000000</v>
       </c>
       <c r="K81" t="n">
-        <v>6037952000000</v>
-      </c>
-      <c r="L81" t="inlineStr"/>
+        <v>6700771000000</v>
+      </c>
+      <c r="L81" t="n">
+        <v>4519213000000</v>
+      </c>
       <c r="M81" t="n">
-        <v>6059247000000</v>
+        <v>3493879000000</v>
       </c>
       <c r="N81" t="n">
-        <v>7091532000000</v>
-      </c>
-      <c r="O81" t="n">
-        <v>6700771000000</v>
-      </c>
+        <v>2877569000000</v>
+      </c>
+      <c r="O81" t="inlineStr"/>
       <c r="P81" t="n">
-        <v>4519213000000</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>3493879000000</v>
-      </c>
+        <v>3750677000000</v>
+      </c>
+      <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3231,53 +3137,49 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>399369977000000</v>
+        <v>428953971000000</v>
       </c>
       <c r="C84" t="n">
-        <v>400844380000000</v>
+        <v>427971850000000</v>
       </c>
       <c r="D84" t="n">
-        <v>405709054000000</v>
+        <v>431136898000000</v>
       </c>
       <c r="E84" t="n">
-        <v>426236433000000</v>
+        <v>433943764000000</v>
       </c>
       <c r="F84" t="n">
-        <v>428953971000000</v>
+        <v>418839499000000</v>
       </c>
       <c r="G84" t="n">
-        <v>427971850000000</v>
+        <v>427386772000000</v>
       </c>
       <c r="H84" t="n">
-        <v>431136898000000</v>
+        <v>457791917000000</v>
       </c>
       <c r="I84" t="n">
-        <v>433943764000000</v>
+        <v>456417837000000</v>
       </c>
       <c r="J84" t="n">
-        <v>418839499000000</v>
+        <v>457890375000000</v>
       </c>
       <c r="K84" t="n">
-        <v>427386772000000</v>
+        <v>454740496000000</v>
       </c>
       <c r="L84" t="n">
-        <v>457791917000000</v>
+        <v>478789403000000</v>
       </c>
       <c r="M84" t="n">
-        <v>456417837000000</v>
+        <v>501583494000000</v>
       </c>
       <c r="N84" t="n">
-        <v>457890375000000</v>
-      </c>
-      <c r="O84" t="n">
-        <v>454740496000000</v>
-      </c>
+        <v>507833203000000</v>
+      </c>
+      <c r="O84" t="inlineStr"/>
       <c r="P84" t="n">
-        <v>478789403000000</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>501583494000000</v>
-      </c>
+        <v>533358461000000</v>
+      </c>
+      <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3492,31 +3394,33 @@
           <t>10. Cổ phiếu ưu đãi</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr"/>
+      <c r="B94" t="n">
+        <v>158080000000</v>
+      </c>
       <c r="C94" t="inlineStr"/>
-      <c r="D94" t="n">
-        <v>82380000000</v>
-      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="n">
-        <v>158080000000</v>
-      </c>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>108003000000</v>
+      </c>
+      <c r="H94" t="n">
+        <v>90861000000</v>
+      </c>
+      <c r="I94" t="n">
+        <v>26316000000</v>
+      </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>108003000000</v>
-      </c>
-      <c r="L94" t="n">
-        <v>90861000000</v>
-      </c>
-      <c r="M94" t="n">
-        <v>26316000000</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
+        <v>213189000000</v>
+      </c>
       <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
+      <c r="P94" t="n">
+        <v>183448000000</v>
+      </c>
       <c r="Q94" t="inlineStr"/>
     </row>
     <row r="95">
@@ -3595,53 +3499,49 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>423970384000000</v>
+        <v>457008004000000</v>
       </c>
       <c r="C98" t="n">
-        <v>426839417000000</v>
+        <v>463680391000000</v>
       </c>
       <c r="D98" t="n">
-        <v>431529902000000</v>
+        <v>467693809000000</v>
       </c>
       <c r="E98" t="n">
-        <v>454450293000000</v>
+        <v>474149926000000</v>
       </c>
       <c r="F98" t="n">
-        <v>457008004000000</v>
+        <v>460911837000000</v>
       </c>
       <c r="G98" t="n">
-        <v>463680391000000</v>
+        <v>486934994000000</v>
       </c>
       <c r="H98" t="n">
-        <v>467693809000000</v>
+        <v>517057918000000</v>
       </c>
       <c r="I98" t="n">
-        <v>474149926000000</v>
+        <v>515623994000000</v>
       </c>
       <c r="J98" t="n">
-        <v>460911837000000</v>
+        <v>527252603000000</v>
       </c>
       <c r="K98" t="n">
-        <v>486934994000000</v>
+        <v>553367205000000</v>
       </c>
       <c r="L98" t="n">
-        <v>517057918000000</v>
+        <v>556136201000000</v>
       </c>
       <c r="M98" t="n">
-        <v>515623994000000</v>
+        <v>580384648000000</v>
       </c>
       <c r="N98" t="n">
-        <v>527252603000000</v>
-      </c>
-      <c r="O98" t="n">
-        <v>553367205000000</v>
-      </c>
+        <v>607578312000000</v>
+      </c>
+      <c r="O98" t="inlineStr"/>
       <c r="P98" t="n">
-        <v>556136201000000</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>580384648000000</v>
-      </c>
+        <v>645625554000000</v>
+      </c>
+      <c r="Q98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3663,7 +3563,9 @@
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
+      <c r="P99" t="n">
+        <v>20601582000000</v>
+      </c>
       <c r="Q99" t="inlineStr"/>
     </row>
     <row r="100">
@@ -3711,15 +3613,11 @@
       <c r="N100" t="n">
         <v>18852157000000</v>
       </c>
-      <c r="O100" t="n">
-        <v>18852157000000</v>
-      </c>
+      <c r="O100" t="inlineStr"/>
       <c r="P100" t="n">
         <v>18852157000000</v>
       </c>
-      <c r="Q100" t="n">
-        <v>18852157000000</v>
-      </c>
+      <c r="Q100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3780,7 +3678,7 @@
         <v>1121000000</v>
       </c>
       <c r="D103" t="n">
-        <v>18852157000000</v>
+        <v>1121000000</v>
       </c>
       <c r="E103" t="n">
         <v>1121000000</v>
@@ -3812,15 +3710,11 @@
       <c r="N103" t="n">
         <v>1121000000</v>
       </c>
-      <c r="O103" t="n">
-        <v>1121000000</v>
-      </c>
+      <c r="O103" t="inlineStr"/>
       <c r="P103" t="n">
         <v>1121000000</v>
       </c>
-      <c r="Q103" t="n">
-        <v>1121000000</v>
-      </c>
+      <c r="Q103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3841,16 +3735,16 @@
         <v>63612000000</v>
       </c>
       <c r="F104" t="n">
-        <v>63612000000</v>
+        <v>1747651000000</v>
       </c>
       <c r="G104" t="n">
-        <v>63612000000</v>
+        <v>1747651000000</v>
       </c>
       <c r="H104" t="n">
-        <v>63612000000</v>
+        <v>1747651000000</v>
       </c>
       <c r="I104" t="n">
-        <v>63612000000</v>
+        <v>1747651000000</v>
       </c>
       <c r="J104" t="n">
         <v>1747651000000</v>
@@ -3867,15 +3761,11 @@
       <c r="N104" t="n">
         <v>1747651000000</v>
       </c>
-      <c r="O104" t="n">
-        <v>1747651000000</v>
-      </c>
+      <c r="O104" t="inlineStr"/>
       <c r="P104" t="n">
         <v>1747651000000</v>
       </c>
-      <c r="Q104" t="n">
-        <v>1747651000000</v>
-      </c>
+      <c r="Q104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3892,19 +3782,13 @@
       <c r="D105" t="n">
         <v>-750911000000</v>
       </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="n">
+      <c r="E105" t="n">
         <v>-750911000000</v>
       </c>
-      <c r="G105" t="n">
-        <v>-750911000000</v>
-      </c>
-      <c r="H105" t="n">
-        <v>-750911000000</v>
-      </c>
-      <c r="I105" t="n">
-        <v>-750911000000</v>
-      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
@@ -3982,15 +3866,11 @@
       <c r="N107" t="n">
         <v>653000000</v>
       </c>
-      <c r="O107" t="n">
-        <v>653000000</v>
-      </c>
+      <c r="O107" t="inlineStr"/>
       <c r="P107" t="n">
         <v>653000000</v>
       </c>
-      <c r="Q107" t="n">
-        <v>653000000</v>
-      </c>
+      <c r="Q107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4068,53 +3948,49 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2963901000000</v>
+        <v>3335011000000</v>
       </c>
       <c r="C111" t="n">
-        <v>2963901000000</v>
+        <v>3336508000000</v>
       </c>
       <c r="D111" t="n">
-        <v>2991963000000</v>
+        <v>3336508000000</v>
       </c>
       <c r="E111" t="n">
-        <v>3335011000000</v>
+        <v>3713778000000</v>
       </c>
       <c r="F111" t="n">
-        <v>3335011000000</v>
+        <v>3713778000000</v>
       </c>
       <c r="G111" t="n">
-        <v>3336508000000</v>
+        <v>3715274000000</v>
       </c>
       <c r="H111" t="n">
-        <v>3336508000000</v>
+        <v>3715274000000</v>
       </c>
       <c r="I111" t="n">
-        <v>3713778000000</v>
+        <v>4234329000000</v>
       </c>
       <c r="J111" t="n">
-        <v>3713778000000</v>
+        <v>4234329000000</v>
       </c>
       <c r="K111" t="n">
-        <v>3715274000000</v>
+        <v>4223224000000</v>
       </c>
       <c r="L111" t="n">
-        <v>3715274000000</v>
+        <v>4223224000000</v>
       </c>
       <c r="M111" t="n">
-        <v>4234329000000</v>
+        <v>4905388000000</v>
       </c>
       <c r="N111" t="n">
-        <v>4234329000000</v>
-      </c>
-      <c r="O111" t="n">
-        <v>4223224000000</v>
-      </c>
+        <v>4968603000000</v>
+      </c>
+      <c r="O111" t="inlineStr"/>
       <c r="P111" t="n">
-        <v>4223224000000</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>4905388000000</v>
-      </c>
+        <v>4971157000000</v>
+      </c>
+      <c r="Q111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4238,51 +4114,47 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>219327000000</v>
+        <v>244014000000</v>
       </c>
       <c r="C117" t="n">
-        <v>199543000000</v>
+        <v>149483000000</v>
       </c>
       <c r="D117" t="n">
-        <v>235934000000</v>
+        <v>124879000000</v>
       </c>
       <c r="E117" t="n">
-        <v>198282000000</v>
+        <v>92363000000</v>
       </c>
       <c r="F117" t="n">
-        <v>244014000000</v>
+        <v>17039000000</v>
       </c>
       <c r="G117" t="n">
-        <v>149483000000</v>
+        <v>37364000000</v>
       </c>
       <c r="H117" t="n">
-        <v>124879000000</v>
-      </c>
-      <c r="I117" t="n">
-        <v>92363000000</v>
-      </c>
+        <v>9144000000</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>17039000000</v>
+        <v>-142274000000</v>
       </c>
       <c r="K117" t="n">
-        <v>37364000000</v>
+        <v>-169492000000</v>
       </c>
       <c r="L117" t="n">
-        <v>9144000000</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>-157323000000</v>
+      </c>
+      <c r="M117" t="n">
+        <v>-306613000000</v>
+      </c>
       <c r="N117" t="n">
-        <v>-142274000000</v>
-      </c>
-      <c r="O117" t="n">
-        <v>-169492000000</v>
-      </c>
+        <v>9569000000</v>
+      </c>
+      <c r="O117" t="inlineStr"/>
       <c r="P117" t="n">
-        <v>-157323000000</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>-306613000000</v>
-      </c>
+        <v>-159774000000</v>
+      </c>
+      <c r="Q117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4343,13 +4215,13 @@
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>-72790000000</v>
+      </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>-72790000000</v>
-      </c>
+      <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr"/>
